--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>带有强力攻击技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,13 +85,17 @@
   </si>
   <si>
     <t>_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带有强力攻击技能,ni;sdfa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +256,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,23 +291,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,7 +470,7 @@
   <dimension ref="C3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -523,7 +489,7 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -546,23 +512,23 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
@@ -597,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
